--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.05824941334275859</v>
+        <v>-0.04123248769265224</v>
       </c>
       <c r="C2">
-        <v>0.7329149620982174</v>
+        <v>0.5678141048133444</v>
       </c>
       <c r="D2">
-        <v>0.9431377016559834</v>
+        <v>0.7453484225297263</v>
       </c>
       <c r="E2">
-        <v>0.9711527694734662</v>
+        <v>0.8633356372406541</v>
       </c>
       <c r="F2">
-        <v>0.9945878318501736</v>
+        <v>0.8836462639047493</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7691828055748186</v>
+        <v>0.7593282539754347</v>
       </c>
       <c r="C3">
-        <v>0.9205581954180276</v>
+        <v>0.8681867713281692</v>
       </c>
       <c r="D3">
-        <v>2.149981050702531</v>
+        <v>1.984319268858228</v>
       </c>
       <c r="E3">
-        <v>1.466281368190475</v>
+        <v>1.408658677202618</v>
       </c>
       <c r="F3">
-        <v>1.282541712206687</v>
+        <v>1.217304992087394</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4149191536568084</v>
+        <v>0.4143225526684406</v>
       </c>
       <c r="C4">
-        <v>1.23107257641616</v>
+        <v>1.117115571250938</v>
       </c>
       <c r="D4">
-        <v>3.835566440881994</v>
+        <v>3.371275995140762</v>
       </c>
       <c r="E4">
-        <v>1.958460221929972</v>
+        <v>1.836103481599216</v>
       </c>
       <c r="F4">
-        <v>1.969493121750646</v>
+        <v>1.837761977278195</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5059538693143628</v>
+        <v>0.5506979343386952</v>
       </c>
       <c r="C5">
-        <v>0.7085292133710372</v>
+        <v>0.7414509954072014</v>
       </c>
       <c r="D5">
-        <v>0.7381409751831787</v>
+        <v>0.7679265988674776</v>
       </c>
       <c r="E5">
-        <v>0.8591513109942734</v>
+        <v>0.8763142124075574</v>
       </c>
       <c r="F5">
-        <v>0.7157416684047507</v>
+        <v>0.7014208651723969</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6438245222110645</v>
+        <v>0.6306395624298597</v>
       </c>
       <c r="C6">
-        <v>0.6458378157615454</v>
+        <v>0.6531076179729335</v>
       </c>
       <c r="D6">
-        <v>0.7963261997454281</v>
+        <v>0.6775008370835029</v>
       </c>
       <c r="E6">
-        <v>0.8923711109989095</v>
+        <v>0.8231043901495745</v>
       </c>
       <c r="F6">
-        <v>0.6381775588617932</v>
+        <v>0.5452354909515147</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2719584168806206</v>
+        <v>0.3250633412777073</v>
       </c>
       <c r="C7">
-        <v>0.5311398129846272</v>
+        <v>0.5387876674859324</v>
       </c>
       <c r="D7">
-        <v>0.4379693070385795</v>
+        <v>0.413150377612954</v>
       </c>
       <c r="E7">
-        <v>0.6617924954535066</v>
+        <v>0.642767747800832</v>
       </c>
       <c r="F7">
-        <v>0.6245065994101431</v>
+        <v>0.5726981303924567</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3591441423331929</v>
+        <v>0.3851030143285183</v>
       </c>
       <c r="C8">
-        <v>0.393289218835213</v>
+        <v>0.4236031049613062</v>
       </c>
       <c r="D8">
-        <v>0.2183813329410183</v>
+        <v>0.2321424284816434</v>
       </c>
       <c r="E8">
-        <v>0.4673128854857506</v>
+        <v>0.4818116109867459</v>
       </c>
       <c r="F8">
-        <v>0.3102797065134359</v>
+        <v>0.2997107477636902</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3503198428831452</v>
+        <v>0.3424193635590594</v>
       </c>
       <c r="C9">
-        <v>0.4372221850445544</v>
+        <v>0.3780005890311999</v>
       </c>
       <c r="D9">
-        <v>0.2655805635224207</v>
+        <v>0.1990162949752141</v>
       </c>
       <c r="E9">
-        <v>0.5153450916836414</v>
+        <v>0.4461124241435269</v>
       </c>
       <c r="F9">
-        <v>0.3984087393128223</v>
+        <v>0.2999029874451486</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3609397033519217</v>
+        <v>0.3499679482706219</v>
       </c>
       <c r="C10">
-        <v>0.4280746931721892</v>
+        <v>0.3499679482706219</v>
       </c>
       <c r="D10">
-        <v>0.2711560055672376</v>
+        <v>0.18669282775681</v>
       </c>
       <c r="E10">
-        <v>0.5207264210381854</v>
+        <v>0.4320796544120193</v>
       </c>
       <c r="F10">
-        <v>0.411162064560627</v>
+        <v>0.2775937959106322</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.7019756382929732</v>
+        <v>0.4882709805783148</v>
       </c>
       <c r="C11">
-        <v>0.7019756382929732</v>
+        <v>0.4882709805783148</v>
       </c>
       <c r="D11">
-        <v>0.5134025303577089</v>
+        <v>0.2805492020480977</v>
       </c>
       <c r="E11">
-        <v>0.7165211304335057</v>
+        <v>0.5296689551484943</v>
       </c>
       <c r="F11">
-        <v>0.1759235640877103</v>
+        <v>0.2514179336479061</v>
       </c>
       <c r="G11">
         <v>3</v>

--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.04123248769265224</v>
+        <v>-0.1768982652262758</v>
       </c>
       <c r="C2">
-        <v>0.5678141048133444</v>
+        <v>0.6795443542960273</v>
       </c>
       <c r="D2">
-        <v>0.7453484225297263</v>
+        <v>1.127648372139759</v>
       </c>
       <c r="E2">
-        <v>0.8633356372406541</v>
+        <v>1.061907892493393</v>
       </c>
       <c r="F2">
-        <v>0.8836462639047493</v>
+        <v>1.071710210249048</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7593282539754347</v>
+        <v>0.6385729239511911</v>
       </c>
       <c r="C3">
-        <v>0.8681867713281692</v>
+        <v>0.9114413858617648</v>
       </c>
       <c r="D3">
-        <v>1.984319268858228</v>
+        <v>2.040117013382039</v>
       </c>
       <c r="E3">
-        <v>1.408658677202618</v>
+        <v>1.428326647998293</v>
       </c>
       <c r="F3">
-        <v>1.217304992087394</v>
+        <v>1.309182460884421</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4143225526684406</v>
+        <v>0.535249571191142</v>
       </c>
       <c r="C4">
-        <v>1.117115571250938</v>
+        <v>1.202902938844514</v>
       </c>
       <c r="D4">
-        <v>3.371275995140762</v>
+        <v>3.603967812443823</v>
       </c>
       <c r="E4">
-        <v>1.836103481599216</v>
+        <v>1.898411918537129</v>
       </c>
       <c r="F4">
-        <v>1.837761977278195</v>
+        <v>1.868710703577968</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5506979343386952</v>
+        <v>0.6699125474792575</v>
       </c>
       <c r="C5">
-        <v>0.7414509954072014</v>
+        <v>0.8506259737546845</v>
       </c>
       <c r="D5">
-        <v>0.7679265988674776</v>
+        <v>1.144803732585156</v>
       </c>
       <c r="E5">
-        <v>0.8763142124075574</v>
+        <v>1.069955014281047</v>
       </c>
       <c r="F5">
-        <v>0.7014208651723969</v>
+        <v>0.8571398600703368</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6306395624298597</v>
+        <v>0.5261311751648745</v>
       </c>
       <c r="C6">
-        <v>0.6531076179729335</v>
+        <v>0.6862967174377638</v>
       </c>
       <c r="D6">
-        <v>0.6775008370835029</v>
+        <v>0.7267385007115407</v>
       </c>
       <c r="E6">
-        <v>0.8231043901495745</v>
+        <v>0.8524895897965796</v>
       </c>
       <c r="F6">
-        <v>0.5452354909515147</v>
+        <v>0.6902105718828747</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3250633412777073</v>
+        <v>0.3302666592216413</v>
       </c>
       <c r="C7">
-        <v>0.5387876674859324</v>
+        <v>0.5314189662411473</v>
       </c>
       <c r="D7">
-        <v>0.413150377612954</v>
+        <v>0.3989061542592715</v>
       </c>
       <c r="E7">
-        <v>0.642767747800832</v>
+        <v>0.631590179039598</v>
       </c>
       <c r="F7">
-        <v>0.5726981303924567</v>
+        <v>0.5549274444195054</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3851030143285183</v>
+        <v>0.3524319253953514</v>
       </c>
       <c r="C8">
-        <v>0.4236031049613062</v>
+        <v>0.4057300614388591</v>
       </c>
       <c r="D8">
-        <v>0.2321424284816434</v>
+        <v>0.2188174786034947</v>
       </c>
       <c r="E8">
-        <v>0.4818116109867459</v>
+        <v>0.4677793054459493</v>
       </c>
       <c r="F8">
-        <v>0.2997107477636902</v>
+        <v>0.3176735709340561</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1768982652262758</v>
+        <v>-0.1679391225927079</v>
       </c>
       <c r="C2">
-        <v>0.6795443542960273</v>
+        <v>0.6512668612981908</v>
       </c>
       <c r="D2">
-        <v>1.127648372139759</v>
+        <v>1.077333483753495</v>
       </c>
       <c r="E2">
-        <v>1.061907892493393</v>
+        <v>1.037946763448634</v>
       </c>
       <c r="F2">
-        <v>1.071710210249048</v>
+        <v>1.047290627843072</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6385729239511911</v>
+        <v>0.6108509255840642</v>
       </c>
       <c r="C3">
-        <v>0.9114413858617648</v>
+        <v>0.8713162755896118</v>
       </c>
       <c r="D3">
-        <v>2.040117013382039</v>
+        <v>1.94510215081865</v>
       </c>
       <c r="E3">
-        <v>1.428326647998293</v>
+        <v>1.394669190460107</v>
       </c>
       <c r="F3">
-        <v>1.309182460884421</v>
+        <v>1.283284338193333</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.535249571191142</v>
+        <v>0.5135409635362268</v>
       </c>
       <c r="C4">
-        <v>1.202902938844514</v>
+        <v>1.149401313682296</v>
       </c>
       <c r="D4">
-        <v>3.603967812443823</v>
+        <v>3.430862853712828</v>
       </c>
       <c r="E4">
-        <v>1.898411918537129</v>
+        <v>1.852258851703192</v>
       </c>
       <c r="F4">
-        <v>1.868710703577968</v>
+        <v>1.8235941048126</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6699125474792575</v>
+        <v>0.6385223778103771</v>
       </c>
       <c r="C5">
-        <v>0.8506259737546845</v>
+        <v>0.8102001327720327</v>
       </c>
       <c r="D5">
-        <v>1.144803732585156</v>
+        <v>1.083726471416818</v>
       </c>
       <c r="E5">
-        <v>1.069955014281047</v>
+        <v>1.041021840028737</v>
       </c>
       <c r="F5">
-        <v>0.8571398600703368</v>
+        <v>0.8435611508437559</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5261311751648745</v>
+        <v>0.5184854322233537</v>
       </c>
       <c r="C6">
-        <v>0.6862967174377638</v>
+        <v>0.6702212091134594</v>
       </c>
       <c r="D6">
-        <v>0.7267385007115407</v>
+        <v>0.6945837070328604</v>
       </c>
       <c r="E6">
-        <v>0.8524895897965796</v>
+        <v>0.8334168866976841</v>
       </c>
       <c r="F6">
-        <v>0.6902105718828747</v>
+        <v>0.6703802697182577</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3302666592216413</v>
+        <v>0.3259858714718396</v>
       </c>
       <c r="C7">
-        <v>0.5314189662411473</v>
+        <v>0.5159630503235952</v>
       </c>
       <c r="D7">
-        <v>0.3989061542592715</v>
+        <v>0.3780268743366828</v>
       </c>
       <c r="E7">
-        <v>0.631590179039598</v>
+        <v>0.6148389011250693</v>
       </c>
       <c r="F7">
-        <v>0.5549274444195054</v>
+        <v>0.5364195870263428</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3524319253953514</v>
+        <v>0.345936562473689</v>
       </c>
       <c r="C8">
-        <v>0.4057300614388591</v>
+        <v>0.3960995140440492</v>
       </c>
       <c r="D8">
-        <v>0.2188174786034947</v>
+        <v>0.2072861800771614</v>
       </c>
       <c r="E8">
-        <v>0.4677793054459493</v>
+        <v>0.45528692060849</v>
       </c>
       <c r="F8">
-        <v>0.3176735709340561</v>
+        <v>0.3051064642012103</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3424193635590594</v>
+        <v>0.3283187899062386</v>
       </c>
       <c r="C9">
-        <v>0.3780005890311999</v>
+        <v>0.3609349132557007</v>
       </c>
       <c r="D9">
-        <v>0.1990162949752141</v>
+        <v>0.1816422354358933</v>
       </c>
       <c r="E9">
-        <v>0.4461124241435269</v>
+        <v>0.4261950673528418</v>
       </c>
       <c r="F9">
-        <v>0.2999029874451486</v>
+        <v>0.2838354343252694</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3499679482706219</v>
+        <v>0.3306938847573825</v>
       </c>
       <c r="C10">
-        <v>0.3499679482706219</v>
+        <v>0.3306938847573825</v>
       </c>
       <c r="D10">
-        <v>0.18669282775681</v>
+        <v>0.1666290365104273</v>
       </c>
       <c r="E10">
-        <v>0.4320796544120193</v>
+        <v>0.4082022005212947</v>
       </c>
       <c r="F10">
-        <v>0.2775937959106322</v>
+        <v>0.2584873103466553</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
